--- a/results/yq_test/Wstate_cz/Rb2Re4/cz_2q_wstate_indep_qiskit_16.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Wstate_cz/Rb2Re4/cz_2q_wstate_indep_qiskit_16.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01529502868652344</v>
+        <v>0.0006718635559082031</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0003137588500976562</v>
+        <v>0.0006198883056640625</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0004990100860595703</v>
+        <v>0.008548736572265625</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(3, 3), (3, 1), (3, 0), (3, 2), (2, 3), (2, 1), (2, 0), (2, 2), (1, 3), (1, 1), (1, 0), (1, 2), (0, 3), (0, 2), (0, 1), (0, 0)]</t>
+          <t>[[3, 3], [3, 1], [3, 0], [3, 2], [2, 3], [2, 1], [2, 0], [2, 2], [1, 3], [1, 1], [1, 0], [1, 2], [0, 3], [0, 2], [0, 1], [0, 0]]</t>
         </is>
       </c>
     </row>
@@ -740,110 +740,120 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01899003982543945</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.01664376258850098</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="N46" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
